--- a/pred_ohlcv/54_21/2019-11-02 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 QTUM ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>3658.33194935</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4205.579249349999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>4189.456549349999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>4630.015249349999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>4630.015249349999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>4630.015249349999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>4661.003849349999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>4554.341549349999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>4136.503149349999</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>8567.661049349999</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>8567.661049349999</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>9112.661049349999</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>9771.051249349999</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>12495.11639365</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>10964.12189365</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>10964.12189365</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>14245.42334881</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>14012.37504881</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>14169.50614881</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>14133.59064881</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>14133.59064881</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>15142.37854881</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>15142.37854881</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>15129.54444881</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>15309.71294881</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>15009.03574881</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>15036.78084881</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>15036.78084881</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>14970.68554881</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>14724.56054881</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>14886.79934881</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>18033.70244881</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>17839.89224881</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>18237.13454881001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>18237.13454881001</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>17839.89224881</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>16348.10904881</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>16348.10904881</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>16348.10904881</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>16348.10904881</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>16348.10904881</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>16348.10904881</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>17809.04605894</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>17719.26655894</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>17719.26655894</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>17719.26655894</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>17719.26655894</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>17719.26655894</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1290.962798190005</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1291.062798190005</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>830.8496981900048</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1091.318798190005</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>956.1163981900048</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>961.4851981900048</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>829.4451981900047</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>829.4451981900047</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>829.5451981900047</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>728.2029981900047</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>320.1733981900047</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>570.1733981900047</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>564.6451981900047</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>564.7451981900048</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-11.97130180999523</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-10.97130180999523</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-8.971301809995225</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-52.97130180999523</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-120.4852018099952</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>184.1714981900048</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>205.5404762600048</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>305.1404762600048</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>375.1803762600048</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>373.4247762600048</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>450.7547762600047</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>568.7128762600048</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>214.6808762600048</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>203.7068762600048</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>203.7068762600048</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>962.7068762600047</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>962.7068762600047</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>1331.738476260005</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>1261.362176260005</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1261.462176260005</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>2541.463776260005</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>2588.363776260005</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1983.494676260005</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>2398.494676260005</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>3096.150176260005</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>3440.814276260005</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1580.754623739995</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-755.2546237399952</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1718.658423739995</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1463.658423739995</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1639.931723739995</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1466.820176260005</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1466.820176260005</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>2666.820176260005</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>2666.820176260005</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>2526.820176260005</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>2526.920176260005</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>2526.920176260005</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>2429.620176260004</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>1964.604876260004</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>2021.130576260004</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>2022.130576260004</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>1484.753476260004</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1571.724676260004</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>1308.496976260004</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>837.4969762600044</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>931.5969762600045</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>733.3082762600045</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>693.5942762600046</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1283.037723739995</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1033.037723739995</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-924.0377237399953</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-924.0377237399953</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-977.0020237399953</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-979.9663237399952</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-979.9663237399952</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1434.866923739995</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1434.866923739995</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1434.766923739995</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1434.766923739995</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1455.598723739995</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1710.979823739995</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-2121.042123739995</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1361.732923739995</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-962.805123739995</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-567.079423739995</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-859.6816237399951</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-346.655523739995</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>160.041276260005</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-404.4509237399951</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-123.0705237399951</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-123.0705237399951</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-330.222623739995</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-224.070523739995</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-264.709323739995</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-264.709323739995</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-136.232623739995</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-150.808923739995</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-150.808923739995</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-1526.551926909995</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-1628.851926909995</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-1628.851926909995</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1643.751026909995</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-1643.751026909995</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-2237.020226909995</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-1622.980326909995</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-275.5780269099951</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-375.6780269099951</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>862.221973090005</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>862.221973090005</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>862.221973090005</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>862.221973090005</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>762.221973090005</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>248.9966730900051</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-15137.02247737999</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-12873.50045371999</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-9606.30585371999</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-6855.210853719991</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-8164.692153719991</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-7768.739853719991</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-3962.633153719991</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>43240.88348098</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>38457.43888098</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>37001.67468098</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>36995.67468098</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>37090.67468098</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>35547.35108098</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>36261.83478098</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>35139.9879943</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>35139.9879943</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>35232.1911943</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>35232.1911943</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>35504.2683943</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>34876.2432943</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>34871.2432943</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>35636.0723943</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>35697.92259430001</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-02 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 QTUM ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>4630.015249349999</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>4630.015249349999</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>4630.015249349999</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>4661.003849349999</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>4554.341549349999</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>4198.835949349999</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4251.746649349999</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>4021.025749349999</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2094.914449349999</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>12495.11639365</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>10964.12189365</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>10964.12189365</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>14245.42334881</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>14012.37504881</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>14169.50614881</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>14133.59064881</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>14133.59064881</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>15142.37854881</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>15142.37854881</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>15129.54444881</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>15309.71294881</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>15009.03574881</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>15036.78084881</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>15036.78084881</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>14970.68554881</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>14724.56054881</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>14886.79934881</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>18033.70244881</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>17839.89224881</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>18237.13454881001</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>18237.13454881001</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>17839.89224881</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>16348.10904881</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>16348.10904881</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>16348.10904881</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>16348.10904881</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>16348.10904881</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>16348.10904881</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>17809.04605894</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>17719.26655894</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>17719.26655894</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>17719.26655894</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>17719.26655894</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>17719.26655894</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1290.962798190005</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1291.062798190005</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>830.8496981900048</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1091.318798190005</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>956.1163981900048</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>961.4851981900048</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>829.4451981900047</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>829.4451981900047</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>829.5451981900047</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>728.2029981900047</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>320.1733981900047</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>570.1733981900047</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>564.6451981900047</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>564.7451981900048</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-11.97130180999523</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-10.97130180999523</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-8.971301809995225</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-52.97130180999523</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-120.4852018099952</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>184.1714981900048</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>205.5404762600048</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>305.1404762600048</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>375.1803762600048</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>373.4247762600048</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>450.7547762600047</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>568.7128762600048</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>214.6808762600048</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>203.7068762600048</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>203.7068762600048</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>962.7068762600047</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>962.7068762600047</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>1331.738476260005</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>1261.362176260005</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1261.462176260005</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>2541.463776260005</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>2588.363776260005</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1983.494676260005</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>2398.494676260005</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>3096.150176260005</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>3440.814276260005</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1580.754623739995</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-755.2546237399952</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1718.658423739995</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1463.658423739995</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1639.931723739995</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1466.820176260005</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1466.820176260005</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>2666.820176260005</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>2666.820176260005</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>2526.820176260005</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>2526.920176260005</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>2526.920176260005</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>2429.620176260004</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>1964.604876260004</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>2021.130576260004</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>2022.130576260004</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>1484.753476260004</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1571.724676260004</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>1308.496976260004</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>837.4969762600044</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>931.5969762600045</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>733.3082762600045</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>693.5942762600046</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1283.037723739995</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1033.037723739995</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-924.0377237399953</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-924.0377237399953</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-977.0020237399953</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-979.9663237399952</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-979.9663237399952</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1434.866923739995</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1434.866923739995</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1434.766923739995</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1434.766923739995</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1455.598723739995</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1710.979823739995</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-2121.042123739995</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1361.732923739995</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-962.805123739995</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-567.079423739995</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-859.6816237399951</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-346.655523739995</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>160.041276260005</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-404.4509237399951</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-123.0705237399951</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-123.0705237399951</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-330.222623739995</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-224.070523739995</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-264.709323739995</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-264.709323739995</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-136.232623739995</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-150.808923739995</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-150.808923739995</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-1526.551926909995</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-1628.851926909995</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-1628.851926909995</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1643.751026909995</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-1643.751026909995</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-2237.020226909995</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-1622.980326909995</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-275.5780269099951</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-375.6780269099951</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>862.221973090005</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>862.221973090005</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>862.221973090005</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>862.221973090005</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>762.221973090005</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>248.9966730900051</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-15137.02247737999</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-12873.50045371999</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-9606.30585371999</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-6855.210853719991</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-8164.692153719991</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-7768.739853719991</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-3962.633153719991</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>37047.01521468</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>40534.34588160001</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>43240.88348098</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>38457.43888098</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>37001.67468098</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>36995.67468098</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>37090.67468098</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>35547.35108098</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>36261.83478098</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>35139.9879943</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>35139.9879943</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>35232.1911943</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>35232.1911943</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>35504.2683943</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>34876.2432943</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>34871.2432943</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>35636.0723943</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>35697.92259430001</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
